--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OTEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3109700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2868800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2815200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2291100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1824200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1851900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1624700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1363300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1207500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1003800</v>
+      </c>
+      <c r="E9" s="3">
         <v>930700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>951000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>762400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>574000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>598400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>510700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>485900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>418000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2106000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1938100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1864200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1528700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1250200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1253500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1114000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>877400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>789500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>370400</v>
+      </c>
+      <c r="E12" s="3">
         <v>321800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>322900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>281700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>194100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>196500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>176800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>164000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>169000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E14" s="3">
         <v>35700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-812500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>34800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>31300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>48100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E15" s="3">
         <v>287500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>271100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>215200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>168100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>159100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>116300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>93200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>74900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2624100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2301700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2303500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1062000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1455700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1503200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1324200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1165700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1058100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>485700</v>
+      </c>
+      <c r="E18" s="3">
         <v>567000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>511700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1229000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>368600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>348700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>197700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>149400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>11100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>144100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1009100</v>
+      </c>
+      <c r="E21" s="3">
         <v>1049000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1112700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1590500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>609500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>560800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>490600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>365100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>296800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E22" s="3">
         <v>137500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>269600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>119100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>76400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>54600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>345200</v>
+      </c>
+      <c r="E23" s="3">
         <v>440600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>386100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1125700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>290800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>266000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>276500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>178200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E24" s="3">
         <v>154900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>124800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>31600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>58500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E26" s="3">
         <v>285600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>261300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1025900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>284500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>234400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>218100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>148500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>125200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E27" s="3">
         <v>285500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>261300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1025700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>284500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>234300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>218100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>148500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>125200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1344,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-19000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>17</v>
@@ -1316,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-144100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E33" s="3">
         <v>285500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>242200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1025700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>284500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>234300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>218100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>148500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>125200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E35" s="3">
         <v>285500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>242200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1025700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>284500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>234300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>218100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>148500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>125200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1692800</v>
+      </c>
+      <c r="E41" s="3">
         <v>941000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>682900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>443400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1283800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>427900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>470400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>559700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1601,57 +1691,63 @@
       <c r="E42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>11800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>11200</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>17</v>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>557100</v>
+      </c>
+      <c r="E43" s="3">
         <v>523100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>543600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>478500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>317700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>305300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>317600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>371900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,159 +1775,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E45" s="3">
         <v>97200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>101100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>81600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>83900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2386400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1561300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1327600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1003500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1672300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1069600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>815700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>717100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>789300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E47" s="3">
         <v>120400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>26800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>452400</v>
+      </c>
+      <c r="E48" s="3">
         <v>249500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>264200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>227400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>160400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>142300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6284900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4916400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4876800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4889300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2971800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2841100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2665400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2671300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1665400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1086400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1197000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1320900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>299600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>283900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>292500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>247200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>222800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10234800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7934000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7765000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7480600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5154100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4353300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3899700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2654800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2444300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E57" s="3">
         <v>46300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>610000</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
       </c>
       <c r="F58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="3">
         <v>182800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>8000</v>
       </c>
       <c r="H58" s="3">
         <v>8000</v>
       </c>
       <c r="I58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J58" s="3">
         <v>62600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>103500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1252800</v>
+      </c>
+      <c r="E59" s="3">
         <v>958400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>942900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>627200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>601900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>562600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>595500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>493100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1904200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1014700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>994600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1127000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>671000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>624400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>641200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>527900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3584300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2604900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2610500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2387100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2138000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1549400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1256800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>513800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>555000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>739600</v>
+      </c>
+      <c r="E62" s="3">
         <v>429700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>442600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>433100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>365900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>349700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>359600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>293800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>234500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6229400</v>
+      </c>
+      <c r="E66" s="3">
         <v>4050500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4048800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3948200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3175500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2524000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2257800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1317600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1264900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2159400</v>
+      </c>
+      <c r="E72" s="3">
         <v>2113900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1994200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1897600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>992500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>863000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>716300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>572900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>442100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4005400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3883500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3716200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3532400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1978700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1829300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1641900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1337200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1179400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E81" s="3">
         <v>285500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>242200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1025700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>284500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>234300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>218100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>148500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>125200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>514700</v>
+      </c>
+      <c r="E83" s="3">
         <v>470900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>456900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>345700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>242400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>240100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>186200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>186900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>159500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>954500</v>
+      </c>
+      <c r="E89" s="3">
         <v>876300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>708100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>439300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>525700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>523000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>417100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>318500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>266500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-105300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-77000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-42300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1469400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-464500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-444400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2191000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-361200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-398400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-374400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-281500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-168900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-145600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-120600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-99300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-87600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-17700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1268800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-148400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>909500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>430200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>170600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>687900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>302600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>753700</v>
+      </c>
+      <c r="E102" s="3">
         <v>259600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>237800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-840400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>583800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>272100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-42600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-89300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>275600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>954500</v>
+        <v>948700</v>
       </c>
       <c r="E89" s="3">
         <v>876300</v>
       </c>
       <c r="F89" s="3">
-        <v>708100</v>
+        <v>703800</v>
       </c>
       <c r="G89" s="3">
-        <v>439300</v>
+        <v>434500</v>
       </c>
       <c r="H89" s="3">
         <v>525700</v>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>948700</v>
+        <v>954500</v>
       </c>
       <c r="E89" s="3">
         <v>876300</v>
       </c>
       <c r="F89" s="3">
-        <v>703800</v>
+        <v>708100</v>
       </c>
       <c r="G89" s="3">
-        <v>434500</v>
+        <v>439300</v>
       </c>
       <c r="H89" s="3">
         <v>525700</v>
@@ -3317,7 +3317,7 @@
         <v>-87600</v>
       </c>
       <c r="J96" s="3">
-        <v>-74700</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-17700</v>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>OTEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3386100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3109700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2868800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2815200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2291100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1824200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1851900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1624700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1363300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1207500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1034500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1003800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>930700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>951000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>762400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>574000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>598400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>510700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>485900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>418000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2351600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2106000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1938100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1864200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1528700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1250200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1253500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1114000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>877400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>789500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>421400</v>
+      </c>
+      <c r="E12" s="3">
         <v>370400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>321800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>322900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>281700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>194100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>196500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>176800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>164000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>169000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>118300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-812500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>34800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>31300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>24500</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>301800</v>
+      </c>
+      <c r="E15" s="3">
         <v>309000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>287500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>271100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>215200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>168100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>159100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>116300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>93200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>74900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2645200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2624100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2301700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2303500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1062000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1455700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1503200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1324200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1165700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1058100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>740900</v>
+      </c>
+      <c r="E18" s="3">
         <v>485700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>567000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>511700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1229000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>368600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>348700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>149400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1051,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E20" s="3">
         <v>8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>144100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-28000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1317000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1009100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1049000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1112700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1590500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>609500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>560800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>490600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>365100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>296800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E22" s="3">
         <v>149200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>137500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>269600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>119100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>76400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>650800</v>
+      </c>
+      <c r="E23" s="3">
         <v>345200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>440600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>386100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1125700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>290800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>266000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>276500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>178200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>339900</v>
+      </c>
+      <c r="E24" s="3">
         <v>110800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>154900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>124800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>31600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>310900</v>
+      </c>
+      <c r="E26" s="3">
         <v>234400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>285600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>261300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1025900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>284500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>234400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>218100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>125200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E27" s="3">
         <v>234200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>285500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>261300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1025700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>284500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>234300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>218100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>148500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>125200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,23 +1405,26 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-19000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>17</v>
@@ -1380,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-144100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>28000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E33" s="3">
         <v>234200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>285500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>242200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1025700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>284500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>234300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>218100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>148500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>125200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E35" s="3">
         <v>234200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>285500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>242200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1025700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>284500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>234300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>218100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>148500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>125200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1607300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1692800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>941000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>682900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>443400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1283800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>427900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>470400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>559700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1694,60 +1784,66 @@
       <c r="F42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>11800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>11200</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>17</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E43" s="3">
         <v>557100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>523100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>543600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>478500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>317700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>305300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>317600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>371900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>350800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,174 +1874,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E45" s="3">
         <v>136400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>97200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>101100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>81600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>83900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>48000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2202100</v>
+      </c>
+      <c r="E46" s="3">
         <v>2386400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1561300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1327600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1003500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1672300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1069600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>815700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>717100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>789300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E47" s="3">
         <v>121000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>120400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>99500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>39500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>26800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13500</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>468100</v>
+      </c>
+      <c r="E48" s="3">
         <v>452400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>249500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>264200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>227400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>160400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>142300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5878900</v>
+      </c>
+      <c r="E49" s="3">
         <v>6284900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4916400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4876800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4889300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2971800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2841100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2665400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2671300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1665400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>883900</v>
+      </c>
+      <c r="E52" s="3">
         <v>990000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1086400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1197000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1320900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>299600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>283900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>292500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>247200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>222800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9609300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10234800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7934000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7765000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7480600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5154100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4353300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3899700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2654800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2444300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E57" s="3">
         <v>41500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>46300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
         <v>610000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>10000</v>
       </c>
       <c r="F58" s="3">
         <v>10000</v>
       </c>
       <c r="G58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="3">
         <v>182800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>8000</v>
       </c>
       <c r="I58" s="3">
         <v>8000</v>
       </c>
       <c r="J58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K58" s="3">
         <v>62600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>103500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41400</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1294400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1252800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>958400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>942900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>627200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>601900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>562600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>595500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>493100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1361900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1904200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1014700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>994600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1127000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>671000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>624400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>641200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>527900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>476500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3578900</v>
+      </c>
+      <c r="E61" s="3">
         <v>3584300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2604900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2610500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2387100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2138000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1549400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1256800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>513800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>555000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>569100</v>
+      </c>
+      <c r="E62" s="3">
         <v>739600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>429700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>442600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>433100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>365900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>349700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>359600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>293800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>234500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5511400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6229400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4050500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4048800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3948200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3175500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2257800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1317600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1264900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2153300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2159400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2113900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1994200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1897600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>992500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>863000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>716300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>572900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>442100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4097900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4005400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3883500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3716200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3532400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1978700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1829300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1641900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1337200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1179400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E81" s="3">
         <v>234200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>285500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>242200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1025700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>284500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>234300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>218100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>148500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>125200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>520600</v>
+      </c>
+      <c r="E83" s="3">
         <v>514700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>470900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>456900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>345700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>242400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>240100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>186200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>159500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>954500</v>
+        <v>876100</v>
       </c>
       <c r="E89" s="3">
+        <v>948700</v>
+      </c>
+      <c r="F89" s="3">
         <v>876300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>708100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>439300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>525700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>523000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>417100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>318500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>266500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-105300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-70000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-77000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-42300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1469400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-464500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-444400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2191000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-361200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-398400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1153400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-374400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-281500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-188700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-168900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-145600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-120600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-99300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-87600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-17700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-924500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1268800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-148400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>909500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>430200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>170600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>687900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>302600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="E102" s="3">
         <v>753700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>259600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>237800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-840400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>583800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>272100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-42600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-89300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>275600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -3324,7 +3324,7 @@
         <v>876100</v>
       </c>
       <c r="E89" s="3">
-        <v>948700</v>
+        <v>954500</v>
       </c>
       <c r="F89" s="3">
         <v>876300</v>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>OTEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3493800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3386100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3109700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2868800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2815200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2291100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1824200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1851900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1624700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1363300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1207500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1062200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1034500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1003800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>930700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>951000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>762400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>574000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>598400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>510700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>485900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>418000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2431600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2351600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2106000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1938100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1864200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1528700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1250200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1253500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1114000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>877400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>789500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>440400</v>
+      </c>
+      <c r="E12" s="3">
         <v>421400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>370400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>321800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>322900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>281700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>194100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>196500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>176800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>164000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>169000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,81 +928,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>118300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>35700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>24200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-812500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>31300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>48100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>24500</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>305300</v>
+      </c>
+      <c r="E15" s="3">
         <v>301800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>309000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>287500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>271100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>215200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>168100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>159100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>116300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>93200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>74900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2876500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2645200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2624100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2301700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2303500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1062000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1455700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1503200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1324200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1165700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1058100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>617400</v>
+      </c>
+      <c r="E18" s="3">
         <v>740900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>485700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>567000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>511700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1229000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>368600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>348700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>197700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>149400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E20" s="3">
         <v>55500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>144100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1171500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1317000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1009100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1049000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1112700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1590500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>609500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>560800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>490600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>365100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>296800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E22" s="3">
         <v>145600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>149200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>137500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>269600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>119100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>76400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>516000</v>
+      </c>
+      <c r="E23" s="3">
         <v>650800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>345200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>440600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>386100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1125700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>290800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>266000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>178200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>137300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E24" s="3">
         <v>339900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>110800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>154900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>124800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>31600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E26" s="3">
         <v>310900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>285600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>261300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1025900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>284500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>234400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>218100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>125200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E27" s="3">
         <v>310700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>234200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>285500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>261300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1025700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>284500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>234300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>218100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>148500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>125200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1420,14 +1481,14 @@
       <c r="E29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-19000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>17</v>
@@ -1444,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-55500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-11100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-144100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E33" s="3">
         <v>310700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>234200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>285500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>242200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1025700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>284500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>234300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>218100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>148500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>125200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E35" s="3">
         <v>310700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>234200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>285500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>242200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1025700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>284500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>234300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>218100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>148500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>125200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1820,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1693700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1607300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1692800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>941000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>682900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>443400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1283800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>427900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>470400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>559700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1787,63 +1877,69 @@
       <c r="G42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>11800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>11200</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>17</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>471100</v>
+      </c>
+      <c r="E43" s="3">
         <v>496200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>557100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>523100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>543600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>478500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>317700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>305300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>317600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>371900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>350800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,189 +1973,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>120600</v>
+      </c>
+      <c r="E45" s="3">
         <v>98600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>136400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>97200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>101100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>59000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>83900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>54500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>48000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2285400</v>
+      </c>
+      <c r="E46" s="3">
         <v>2202100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2386400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1561300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1327600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1003500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1672300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1069600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>815700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>717100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>789300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E47" s="3">
         <v>176400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>121000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>120400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>39500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>442800</v>
+      </c>
+      <c r="E48" s="3">
         <v>468100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>452400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>249500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>264200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>227400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>183700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>160400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>142300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6319900</v>
+      </c>
+      <c r="E49" s="3">
         <v>5878900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6284900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4916400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4876800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4889300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2971800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2841100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2665400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2671300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1665400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>893900</v>
+      </c>
+      <c r="E52" s="3">
         <v>883900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>990000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1086400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1197000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1320900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>299600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>283900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>292500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>247200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>222800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10179000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9609300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10234800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7934000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7765000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7480600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5154100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4353300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3899700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2654800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2444300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,44 +2400,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E57" s="3">
         <v>57500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>46300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2315,179 +2449,194 @@
         <v>10000</v>
       </c>
       <c r="E58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="3">
         <v>610000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>10000</v>
       </c>
       <c r="G58" s="3">
         <v>10000</v>
       </c>
       <c r="H58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="3">
         <v>182800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8000</v>
       </c>
       <c r="J58" s="3">
         <v>8000</v>
       </c>
       <c r="K58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L58" s="3">
         <v>62600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>103500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41400</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1344300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1294400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1252800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>958400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>942900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>627200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>601900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>562600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>595500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>493100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1468300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1361900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1904200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1014700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>994600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1127000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>671000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>624400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>641200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>527900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>476500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4209600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3578900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3584300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2604900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2610500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2387100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2138000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1549400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1256800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>513800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>555000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>468900</v>
+      </c>
+      <c r="E62" s="3">
         <v>569100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>739600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>429700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>442600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>433100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>365900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>349700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>359600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>293800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>234500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6147900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5511400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6229400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4050500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4048800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3948200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3175500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2524000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2257800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1317600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1264900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2160100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2153300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2159400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2113900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1994200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1897600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>992500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>863000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>716300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>572900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>442100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4031100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4097900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4005400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3883500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3716200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3532400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1978700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1829300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1641900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1337200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1179400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E81" s="3">
         <v>310700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>234200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>285500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>242200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1025700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>284500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>234300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>218100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>148500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>125200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E83" s="3">
         <v>520600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>514700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>470900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>456900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>345700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>242400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>240100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>186200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>186900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>159500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>981800</v>
+      </c>
+      <c r="E89" s="3">
         <v>876100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>954500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>876300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>708100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>439300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>525700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>523000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>417100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>318500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>266500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-105300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-70000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-42300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-971000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1469400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-464500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-444400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2191000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-361200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-398400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1153400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-374400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-281500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3760,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-237700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-210700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-188700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-168900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-145600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-120600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-99300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-87600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-17700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3913,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-924500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1268800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-148400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>909500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>430200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>170600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>687900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-31100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>302600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E101" s="3">
         <v>29700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-87500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>753700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>259600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>237800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-840400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>583800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>272100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-42600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-89300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>275600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -3544,7 +3544,7 @@
         <v>876100</v>
       </c>
       <c r="F89" s="3">
-        <v>954500</v>
+        <v>948700</v>
       </c>
       <c r="G89" s="3">
         <v>876300</v>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OTEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4485000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3493800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3386100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3109700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2868800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2815200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2291100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1824200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1851900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1624700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1363300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1207500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1316600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1062200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1034500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1003800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>930700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>951000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>762400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>574000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>598400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>510700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>485900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>418000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3168400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2431600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2351600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2106000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1938100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1864200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1528700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1250200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1253500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1114000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>877400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>789500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,47 +866,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>680600</v>
+      </c>
+      <c r="E12" s="3">
         <v>440400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>421400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>370400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>321800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>322900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>281700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>194100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>196500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>176800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>164000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>169000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,87 +947,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E14" s="3">
         <v>74300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>118300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>24200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-812500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>31300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>48100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24500</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>434200</v>
+      </c>
+      <c r="E15" s="3">
         <v>305300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>301800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>309000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>287500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>271100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>215200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>168100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>159100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>116300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>93200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>74900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3976800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2876500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2645200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2624100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2301700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2303500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1062000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1455700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1503200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1324200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1165700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1058100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>508100</v>
+      </c>
+      <c r="E18" s="3">
         <v>617400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>740900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>485700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>567000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>511700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1229000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>368600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>348700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>197700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>149400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1119,203 +1151,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E20" s="3">
         <v>50200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>55500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>144100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-19500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1171500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1317000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1009100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1049000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1112700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1590500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>609500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>560800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>490600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>365100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>296800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>363600</v>
+      </c>
+      <c r="E22" s="3">
         <v>151600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>145600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>149200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>137500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>269600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>119100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>76400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27900</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E23" s="3">
         <v>516000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>650800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>345200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>440600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>386100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1125700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>290800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>266000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>178200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>137300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E24" s="3">
         <v>118800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>339900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>110800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>154900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>124800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150600</v>
+      </c>
+      <c r="E26" s="3">
         <v>397300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>310900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>285600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>261300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1025900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>284500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>234400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>218100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>125200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E27" s="3">
         <v>397100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>310700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>234200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>285500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>261300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1025700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>284500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>234300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>218100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>148500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>125200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,14 +1544,14 @@
       <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-19000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>17</v>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-50200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-55500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-144100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>19500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E33" s="3">
         <v>397100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>310700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>234200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>285500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>242200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1025700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>284500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>234300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>218100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>148500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>125200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E35" s="3">
         <v>397100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>310700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>234200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>285500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>242200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1025700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>284500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>234300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>218100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>148500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>125200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,125 +1906,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1231600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1693700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1607300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1692800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>941000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>682900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>443400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1283800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>427900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>470400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>559700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>17</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>11800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11200</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>17</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>821900</v>
+      </c>
+      <c r="E43" s="3">
         <v>471100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>496200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>557100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>523100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>543600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>478500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>317700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>305300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>317600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>371900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>350800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1976,204 +2071,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221700</v>
+      </c>
+      <c r="E45" s="3">
         <v>120600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>98600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>136400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>97200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>101100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>81600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>59000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>83900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>48000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2275200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2285400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2202100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2386400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1561300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1327600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1003500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1672300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1069600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>815700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>717100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>789300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>346700</v>
+      </c>
+      <c r="E47" s="3">
         <v>237000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>176400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>121000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>120400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>99500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>39500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>642600</v>
+      </c>
+      <c r="E48" s="3">
         <v>442800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>452400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>249500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>264200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>227400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>183700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>160400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>142300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12743500</v>
+      </c>
+      <c r="E49" s="3">
         <v>6319900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5878900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6284900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4916400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4876800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4889300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2971800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2841100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2665400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2671300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1665400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2365,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1081200</v>
+      </c>
+      <c r="E52" s="3">
         <v>893900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>883900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>990000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1086400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1197000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1320900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>299600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>283900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>292500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>247200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>222800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17089200</v>
+      </c>
+      <c r="E54" s="3">
         <v>10179000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9609300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10234800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7934000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7765000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7480600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5154100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4353300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3899700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2654800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2444300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,242 +2530,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>162700</v>
+      </c>
+      <c r="E57" s="3">
         <v>114000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>57500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10000</v>
+        <v>320900</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
       </c>
       <c r="F58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="3">
         <v>610000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>10000</v>
       </c>
       <c r="H58" s="3">
         <v>10000</v>
       </c>
       <c r="I58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="3">
         <v>182800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>8000</v>
       </c>
       <c r="K58" s="3">
         <v>8000</v>
       </c>
       <c r="L58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M58" s="3">
         <v>62600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>103500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>41400</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2736000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1344300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1294400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1252800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>958400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>942900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>627200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>601900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>562600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>595500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>493100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3219600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1468300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1361900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1904200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1014700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>994600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1127000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>671000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>624400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>641200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>527900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>476500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8562100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4209600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3578900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3584300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2604900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2610500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2387100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2138000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1549400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1256800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>513800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>555000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1285400</v>
+      </c>
+      <c r="E62" s="3">
         <v>468900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>569100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>739600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>429700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>442600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>433100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>365900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>349700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>359600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>293800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>234500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13068400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6147900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5511400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6229400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4050500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4048800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3948200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3175500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2524000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2257800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1317600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1264900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3091,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2049000</v>
+      </c>
+      <c r="E72" s="3">
         <v>2160100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2153300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2159400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2113900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1994200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1897600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>992500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>863000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>716300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>572900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>442100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4020800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4031100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4097900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4005400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3883500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3716200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3532400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1978700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1829300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1641900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1337200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1179400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E81" s="3">
         <v>397100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>310700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>234200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>285500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>242200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1025700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>284500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>234300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>218100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>148500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>125200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3495,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>657400</v>
+      </c>
+      <c r="E83" s="3">
         <v>504000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>520600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>514700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>470900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>456900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>345700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>242400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>240100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>186200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>186900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>159500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>779200</v>
+      </c>
+      <c r="E89" s="3">
         <v>981800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>876100</v>
       </c>
-      <c r="F89" s="3">
-        <v>948700</v>
-      </c>
       <c r="G89" s="3">
+        <v>954500</v>
+      </c>
+      <c r="H89" s="3">
         <v>876300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>708100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>439300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>525700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>523000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>417100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>266500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-123800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-72700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-105300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-79600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-42300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3930,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5651400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-971000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1469400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-464500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-444400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2191000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-361200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-398400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1153400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-374400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-281500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,47 +3993,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-259500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-237700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-210700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-188700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-168900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-145600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-120600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-99300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-87600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-17700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,124 +4158,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4403100</v>
+      </c>
+      <c r="E100" s="3">
         <v>138500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-924500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1268800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-148400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>909500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>430200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>687900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-31100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>302600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-63200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>29700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-11900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="E102" s="3">
         <v>86100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-87500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>753700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>259600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>237800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-840400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>583800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>272100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-42600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-89300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>275600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/OTEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>OTEX</t>
   </si>
@@ -1955,22 +1955,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>821900</v>
+        <v>828200</v>
       </c>
       <c r="E43" s="3">
         <v>471100</v>
@@ -2081,7 +2081,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>221700</v>
+        <v>213900</v>
       </c>
       <c r="E45" s="3">
         <v>120600</v>
@@ -2165,7 +2165,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>346700</v>
+        <v>352200</v>
       </c>
       <c r="E47" s="3">
         <v>237000</v>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1081200</v>
+        <v>1075700</v>
       </c>
       <c r="E52" s="3">
         <v>893900</v>
@@ -2579,7 +2579,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>320900</v>
+        <v>326100</v>
       </c>
       <c r="E58" s="3">
         <v>10000</v>
@@ -2621,7 +2621,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2736000</v>
+        <v>2730800</v>
       </c>
       <c r="E59" s="3">
         <v>1344300</v>
@@ -2705,7 +2705,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8562100</v>
+        <v>8567600</v>
       </c>
       <c r="E61" s="3">
         <v>4209600</v>
@@ -2747,7 +2747,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1285400</v>
+        <v>1279900</v>
       </c>
       <c r="E62" s="3">
         <v>468900</v>
